--- a/pred_ohlcv/54_21/2020-01-22 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-511350.8401000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-618350.8401000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-944336.3769318102</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1080794.55313181</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-976624.2129318102</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-943078.3653318102</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-762452.1492188001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-829956.0447188001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-830596.0447188001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-834899.3807188001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-834702.4803188001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-841756.3782188001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-769756.3782188001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-509124.7454188</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-516285.0419188</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-361534.7316188</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-283976.1110188001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>765194.4070812</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>734380.4703812001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1028092.2371812</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1033256.2432812</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1115256.2432812</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1120060.2989812</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>761769.0550812</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>759212.9307811999</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>677356.7308811999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>682356.7308811999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>609218.6608811999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>610594.7675811999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>610594.7675811999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>947367.5850811999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>990301.5850811999</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>986980.0950811999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>987267.0950811999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>317937.1333811999</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>334832.7216811999</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1113582.14817125</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 IOST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 IOST ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-511350.8401000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-618350.8401000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-944336.3769318102</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1080794.55313181</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1025024.58143181</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-976624.2129318102</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-943078.3653318102</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-900703.4984188002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-762452.1492188001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-829956.0447188001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-830596.0447188001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-834899.3807188001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-834702.4803188001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-841756.3782188001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-769756.3782188001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-449124.7454188</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-509124.7454188</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-516285.0419188</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-361534.7316188</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-283976.1110188001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1029922.2238812</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1067007.7031812</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>683239.8752812</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>683039.8752812</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>708393.8947812001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>699090.1397812001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>765194.4070812</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>734100.3113812001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>734380.4703812001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>1110288.7792812</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1028092.2371812</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1033256.2432812</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>1228518.3082812</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1120060.2989812</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>761769.0550812</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>759212.9307811999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
